--- a/biology/Zoologie/Eremias_yarkandensis/Eremias_yarkandensis.xlsx
+++ b/biology/Zoologie/Eremias_yarkandensis/Eremias_yarkandensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias yarkandensis est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias yarkandensis est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Kirghizistan et au Xinjiang en République populaire de Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Kirghizistan et au Xinjiang en République populaire de Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de yarkand et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le xian de Yarkand[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de yarkand et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le xian de Yarkand.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Blanford, 1875 : List of Reptilia and Amphibia collected by the late Dr. Stoliczka in Kashmir, Ladák, eastern Turkestán, and Wakhán, with descriptions of new species. The journal of the Asiatic Society of Bengal, vol. 44, part. 2, no 3, p. 191-196 (texte intégral).</t>
         </is>
